--- a/Doc/DBDesign.xlsx
+++ b/Doc/DBDesign.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Private\Code\git\StockAnalysisSystem\Doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="9220"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="9216"/>
   </bookViews>
   <sheets>
     <sheet name="sAsUtility" sheetId="3" r:id="rId1"/>
@@ -12,8 +17,8 @@
     <sheet name="sAsFinanceData" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t xml:space="preserve">AccountingSubject </t>
   </si>
@@ -158,23 +163,32 @@
   <si>
     <t>0: closen; 1: open</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AliasTable</t>
+  </si>
+  <si>
+    <t>aliases_name</t>
+  </si>
+  <si>
+    <t>standard_name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -220,7 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -490,27 +504,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="30.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -639,6 +653,37 @@
       <c r="A13" t="s">
         <v>34</v>
       </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -648,19 +693,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.4140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.9140625" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="20.9140625" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -694,19 +739,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="16.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.9140625" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" customWidth="1"/>
     <col min="6" max="6" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Doc/DBDesign.xlsx
+++ b/Doc/DBDesign.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Private\Code\git\StockAnalysisSystem\Doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="9216"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="9220"/>
   </bookViews>
   <sheets>
     <sheet name="sAsUtility" sheetId="3" r:id="rId1"/>
@@ -17,8 +12,8 @@
     <sheet name="sAsFinanceData" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t xml:space="preserve">AccountingSubject </t>
   </si>
@@ -149,10 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>StockDict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>StockCalendar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,23 +163,49 @@
   </si>
   <si>
     <t>standard_name</t>
+  </si>
+  <si>
+    <t>UpdateTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1Tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2Tag</t>
+  </si>
+  <si>
+    <t>L3Tag</t>
+  </si>
+  <si>
+    <t>Different tag levels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last update time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -229,12 +246,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -504,27 +523,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.58203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="16.08203125" customWidth="1"/>
+    <col min="5" max="5" width="30.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -541,149 +560,218 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>34</v>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>39</v>
+      <c r="C19" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>40</v>
+      <c r="C20" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -693,19 +781,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.9140625" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="20.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -739,19 +827,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.4140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.9140625" customWidth="1"/>
     <col min="6" max="6" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Doc/DBDesign.xlsx
+++ b/Doc/DBDesign.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
   <si>
     <t xml:space="preserve">AccountingSubject </t>
   </si>
@@ -188,6 +188,45 @@
   </si>
   <si>
     <t>LastUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TradeCalender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exchange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TradeDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varstring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易所，SSE, SZSE, HKEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否交易 0休市 1交易</t>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -246,11 +285,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -523,7 +563,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -531,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -735,8 +775,8 @@
       <c r="C20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>14</v>
+      <c r="D20" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>45</v>
@@ -772,6 +812,60 @@
         <v>23</v>
       </c>
       <c r="E25" s="1"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Doc/DBDesign.xlsx
+++ b/Doc/DBDesign.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
   <si>
     <t xml:space="preserve">AccountingSubject </t>
   </si>
@@ -227,6 +227,22 @@
   </si>
   <si>
     <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512,NN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512,NN,UK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defination</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -285,12 +301,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -563,7 +578,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -571,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -582,25 +597,29 @@
     <col min="1" max="1" width="12.58203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="16.08203125" customWidth="1"/>
-    <col min="5" max="5" width="30.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.08203125" customWidth="1"/>
+    <col min="6" max="6" width="30.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -611,11 +630,12 @@
       <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
@@ -624,11 +644,12 @@
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -637,18 +658,20 @@
       <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -659,11 +682,12 @@
       <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -672,11 +696,12 @@
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
@@ -685,11 +710,12 @@
       <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
@@ -698,11 +724,12 @@
       <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
@@ -711,11 +738,12 @@
       <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -726,11 +754,12 @@
       <c r="D16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="3" t="s">
@@ -739,11 +768,12 @@
       <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="1"/>
+      <c r="F17" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="3" t="s">
@@ -752,11 +782,12 @@
       <c r="D18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="1"/>
+      <c r="F18" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="3" t="s">
@@ -765,24 +796,34 @@
       <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="1"/>
+      <c r="F19" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="21" spans="1:6">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
@@ -790,8 +831,9 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
@@ -800,9 +842,12 @@
       <c r="D24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="E24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
@@ -811,59 +856,80 @@
       <c r="D25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1" t="s">
+      <c r="E25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="1">
+        <v>512</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>52</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E32" s="3"/>
+      <c r="F32" s="1" t="s">
         <v>55</v>
       </c>
     </row>

--- a/Doc/DBDesign.xlsx
+++ b/Doc/DBDesign.xlsx
@@ -159,9 +159,6 @@
     <t>AliasTable</t>
   </si>
   <si>
-    <t>aliases_name</t>
-  </si>
-  <si>
     <t>standard_name</t>
   </si>
   <si>
@@ -243,6 +240,10 @@
   </si>
   <si>
     <t>Defination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alias_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,7 +579,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -588,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -613,7 +614,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>30</v>
@@ -745,7 +746,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
@@ -763,56 +764,56 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -837,13 +838,13 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F24" s="1"/>
     </row>
@@ -851,13 +852,13 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F25" s="1"/>
     </row>
@@ -865,7 +866,7 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>23</v>
@@ -877,7 +878,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
@@ -895,42 +896,42 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
